--- a/data/ideophones_coded_MD.xlsx
+++ b/data/ideophones_coded_MD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Surfdrive\Shared\Ideophone_coding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Data\R\triangulating_iconicity\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575480DB-7ADA-4E77-8473-DAD23B0642B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93F048E-47BE-4AC6-AE7F-B5FEFFC7147D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="-16752" windowWidth="30324" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17" yWindow="17" windowWidth="21926" windowHeight="12326" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ideophones_meta" sheetId="1" r:id="rId1"/>
@@ -3025,10 +3025,10 @@
     <t>M_abrupt_MD</t>
   </si>
   <si>
-    <t>F_modifiedredup_MD</t>
-  </si>
-  <si>
     <t>F_finallength_MD</t>
+  </si>
+  <si>
+    <t>F_redupmod_MD</t>
   </si>
 </sst>
 </file>
@@ -3439,7 +3439,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3501,7 +3501,7 @@
         <v>978</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="L1" t="s">
         <v>979</v>
@@ -3513,7 +3513,7 @@
         <v>981</v>
       </c>
       <c r="O1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="P1" t="s">
         <v>982</v>

--- a/data/ideophones_coded_MD.xlsx
+++ b/data/ideophones_coded_MD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Data\R\triangulating_iconicity\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93F048E-47BE-4AC6-AE7F-B5FEFFC7147D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9E6B4D-2EFB-4035-9906-2AA05E670BBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17" yWindow="17" windowWidth="21926" windowHeight="12326" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="737" windowWidth="18900" windowHeight="11109" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ideophones_meta" sheetId="1" r:id="rId1"/>
@@ -3019,9 +3019,6 @@
     <t>M_punctual_MD</t>
   </si>
   <si>
-    <t>M_durative_MD</t>
-  </si>
-  <si>
     <t>M_abrupt_MD</t>
   </si>
   <si>
@@ -3029,6 +3026,9 @@
   </si>
   <si>
     <t>F_redupmod_MD</t>
+  </si>
+  <si>
+    <t>M_long_MD</t>
   </si>
 </sst>
 </file>
@@ -3437,9 +3437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3501,7 +3501,7 @@
         <v>978</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="L1" t="s">
         <v>979</v>
@@ -3513,7 +3513,7 @@
         <v>981</v>
       </c>
       <c r="O1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="P1" t="s">
         <v>982</v>
@@ -3534,10 +3534,10 @@
         <v>987</v>
       </c>
       <c r="V1" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="W1" s="9" t="s">
         <v>988</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>989</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>958</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="6">
         <v>0</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="6">
         <v>0</v>
@@ -18413,7 +18413,7 @@
         <v>0</v>
       </c>
       <c r="V217" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W217" s="6">
         <v>0</v>
@@ -18617,7 +18617,7 @@
         <v>0</v>
       </c>
       <c r="V220" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W220" s="6">
         <v>0</v>
